--- a/cleaned/icici_prudential_mutual_fund_portfolio.xlsx
+++ b/cleaned/icici_prudential_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,38 +511,37 @@
           <t>INE154A01025</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Diversified Fmcg</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>66182477</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>296199.68</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>0.1651257973614</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -544,38 +558,37 @@
           <t>INE018A01030</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>7405377</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>264164.61</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>0.1472668433028</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -592,38 +605,37 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>50703784</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>164407.02</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>0.0916538473955</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -640,38 +652,37 @@
           <t>INE752E01010</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>48632808</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>146798.13</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>0.0818372196331</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -688,38 +699,37 @@
           <t>INE062A01020</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>17018202</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>131567.72</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>0.0733465501111</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -736,38 +746,37 @@
           <t>INE238A01034</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>12575417</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>124043.91</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>0.0691521663581</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -784,38 +793,37 @@
           <t>INE139A01034</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>55213006</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>111640.7</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>0.0622376081077</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -832,38 +840,37 @@
           <t>INE263A01024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>35680324</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>104471.99</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>0.0582411859819</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -880,38 +887,37 @@
           <t>INE213A01029</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>35574859</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>93384</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>0.0520598383522</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -928,38 +934,37 @@
           <t>INE522F01014</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>20800133</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>82326.93</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>0.0458957280459</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -976,38 +981,37 @@
           <t>INE029A01011</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>17413422</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>45483.86</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>0.0253564036584</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1024,38 +1028,37 @@
           <t>INE242A01010</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>34779881</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>44709.54</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>0.0249247346997</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1072,38 +1075,37 @@
           <t>INE129A01019</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>24591081</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>43575.4</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>0.0242924728019</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1120,38 +1122,37 @@
           <t>INE134E01011</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>6439256</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>27209.08</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>0.0151685546401</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1168,38 +1169,37 @@
           <t>INE020B01018</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>5488336</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>24689.28</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>0.0137638131353</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1216,38 +1216,37 @@
           <t>INE848E01016</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>28942597</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>23287.21</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>0.0129821852595</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1264,38 +1263,37 @@
           <t>INE028A01039</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>8255887</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>17618.06</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>0.0098217398663</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1312,38 +1310,37 @@
           <t>INE379A01028</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>6618246</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>10896.94</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>0.0060748408178</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1360,38 +1357,37 @@
           <t>INE095N01031</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>10220579</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10201.16</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>0.0056869564444</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1408,38 +1404,37 @@
           <t>INE562A01011</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>1553050</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8632.63</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>0.0048125302231</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1456,38 +1451,37 @@
           <t>INE002L01015</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>5451740</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5309.99</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>0.0029602203916</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1504,38 +1498,37 @@
           <t>INE589A01014</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>2367583</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5256.03</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>0.002930138698</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1552,38 +1545,37 @@
           <t>INE510A01028</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>2743430</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4699.5</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>0.0026198836025</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity Related Instruments      17905733699999996 09982112588882999  </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity Related Instruments  NAN nan nan nan 17905733699999996 09982112588882999 nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>BHARATETF</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1602,40 +1594,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>499431490</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>511449.81</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>0.3777333748383</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1654,40 +1645,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>7.930000000000001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>66848050</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>68560.43</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>0.0506355894516</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1706,40 +1696,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>45460800</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>45792.07</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>0.033819922901</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1758,40 +1747,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>11732700</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>12053.53</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>0.0089021844892</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1810,40 +1798,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>3314200</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3417.64</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>0.0025241121727</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1862,40 +1849,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>2100000</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2159.25</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>0.0015947230278</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1914,40 +1900,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>185000</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>186.22</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>0.000137533552</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -1966,40 +1951,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>SOV</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>178350</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>179.92</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>0.0001328806609</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Securities      64379887 04754803210935  </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Government Securities  NAN nan nan nan 64379887 04754803210935 nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2018,40 +2002,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>20164.76</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>0.0148927669903</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2070,40 +2053,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>ICRA AA+</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>20086.76</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>0.0148351597674</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2122,40 +2104,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>CARE AA+</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>19923.28</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>0.0147144209365</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2174,40 +2155,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>8.950000000000001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>16000</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>16151.22</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>0.0119285504052</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2226,40 +2206,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>CARE AA+</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>15000</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>14898.68</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>0.0110034818021</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2278,40 +2257,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>CARE AA-</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>15000</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>14884.79</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>0.0109932232851</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2330,40 +2308,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>12960.65</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>0.0095721417211</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2382,40 +2359,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>CRISIL AA-</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>12500</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>12471.16</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>0.0092106268549</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2434,40 +2410,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>CARE AA-</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>12500</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>12379.86</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>0.0091431968619</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2486,40 +2461,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>CARE AA-</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>12500</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>12361.75</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>0.0091298216464</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2538,40 +2512,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>1200000</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>12007.14</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>0.0088679229626</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2590,40 +2563,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>12000</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>11953.96</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>0.0088286466534</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2642,40 +2614,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>ICRA AA+</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>11024.13</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>0.008141916857</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2694,40 +2665,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>10996.69</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>0.0081216509314</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2746,40 +2716,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>ICRA AA-</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>10911.08</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>0.0080584233114</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2798,40 +2767,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>FITCH AA-</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>10450</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>10490.8</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>0.0077480237772</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2850,40 +2818,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>FITCH AA-</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>10050</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>10082.63</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>0.0074465681337</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2902,40 +2869,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>10067.17</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>0.0074351500867</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -2954,40 +2920,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>10031.42</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>0.0074087467761</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3006,40 +2971,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>9.950000000000001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>CRISIL AA-</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>10021.03</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>0.0074010731986</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3058,40 +3022,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>10013.91</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>0.0073958146931</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3110,40 +3073,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>CRISIL AA-</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>9994.71</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>0.0073816344536</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3162,40 +3124,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>9986.22</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>0.007375364129</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3214,40 +3175,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>9984.3</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>0.007373946105</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3266,40 +3226,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>7.9926</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>9942.12</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>0.0073427938914</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3318,40 +3277,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>8172.06</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>0.0060355087494</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3370,40 +3328,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>750</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>7450.58</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>0.0055026567081</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3422,40 +3379,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>7.9613000000000005</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>7000</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7016.19</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>0.0051818361751</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3474,40 +3430,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>FITCH AAA</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>7000</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>7015.4</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>0.0051812527173</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3526,40 +3481,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>7.750500000000001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>6958.47</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>0.0051392068301</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3578,40 +3532,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>CRISIL AAA(CE)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>6892.64</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>0.005090587811</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3630,40 +3583,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>6200</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>6189.82</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>0.00457151719</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3682,40 +3634,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>6000</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>6009.06</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>0.0044380161434999996</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3734,40 +3685,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>CARE AA+(CE)</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>6000</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5955.01</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>0.0043980972922</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3786,40 +3736,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>7.266</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>FITCH AA</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5257.58</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>0.003883007478</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3838,40 +3787,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>5107.4</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>0.0037720914172</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3890,40 +3838,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>10.200000000000001</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>ICRA AA-</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>5012.96</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>0.0037023423642</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3942,40 +3889,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>5010.4</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>0.0037004516656</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -3994,40 +3940,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>10.200000000000001</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>ICRA AA-</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>5009.13</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>0.0036995137018</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4046,40 +3991,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>ICRA AA</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>5007.74</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>0.0036984871115</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4098,40 +4042,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>8.700000000000001</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>8.39</t>
-        </is>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>5007.63</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>0.0036984058706</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4150,40 +4093,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>4996.97</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>0.0036905328835</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4202,40 +4144,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>ICRA AA</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>4995.9</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>0.0036897426305</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4254,40 +4195,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>4992.35</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>0.0036871207633</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4306,40 +4246,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>4450.45</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>0.0032868982746</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4358,40 +4297,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>4043.56</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>0.0029863879803</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4410,40 +4348,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>CARE AA</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>340</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>3421.34</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
           <t>0.002526844823</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4462,40 +4399,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>8.700000000000001</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2894.83</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>0.0021379886825</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4514,40 +4450,39 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2513.63</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>0.0018564518442</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4566,40 +4501,39 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>8.39</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2507.63</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>0.0018520205193</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4618,40 +4552,39 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>9.950000000000001</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>CRISIL AA-</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2502.85</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>0.0018484902305</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4670,40 +4603,39 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>ICRA AA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2493.14</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>0.0018413188698</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4722,40 +4654,39 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>ICRA AA</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2485.91</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>0.0018359791234</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4774,40 +4705,39 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>CRISIL AA+(CE)</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2462.74</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>0.0018188668239</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4826,40 +4756,39 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2018.69</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
           <t>0.0014909118579</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4878,40 +4807,39 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>FITCH AA</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2003.81</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>0.0014799221722</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4930,40 +4858,39 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>FITCH AA</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2002.86</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>0.0014792205458</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -4982,40 +4909,39 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>8.700000000000001</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1999.76</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>0.001476931028</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5034,40 +4960,39 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>FITCH AA</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1999.46</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>0.0014767094617</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5086,40 +5011,39 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>1998.58</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>0.0014760595341</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5138,40 +5062,39 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>FITCH AA</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>1997.36</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>0.001475158498</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5190,40 +5113,39 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>1986.34</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
           <t>0.0014670196314</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5242,40 +5164,39 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1861.39</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>0.0013747372916</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5294,40 +5215,39 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1848.13</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>0.0013649440637</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5346,40 +5266,39 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>1846.14</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
           <t>0.0013634743409</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5398,40 +5317,39 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1834.88</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>0.0013551582213</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5450,40 +5368,39 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>1827.44</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>0.0013496633785</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5502,40 +5419,39 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>1819.33</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>0.0013436737044</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5554,40 +5470,39 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>1810.48</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>0.0013371375003</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5606,40 +5521,39 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>1800.84</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>0.0013300178383</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5658,40 +5572,39 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1683.54</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>0.0012433854377</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5710,40 +5623,39 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>1509.24</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>0.001114655451</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5762,40 +5674,39 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>998.68</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
           <t>0.000737579249</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5814,40 +5725,39 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>820</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>816.37</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>0.0006029334436</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5866,40 +5776,39 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>524.86</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>0.0003876375261</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5918,40 +5827,39 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>ICRA AA</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>503.86</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>0.0003721278892</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -5970,40 +5878,39 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>499.43</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>0.0003688560943</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6022,40 +5929,39 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>8.620000000000001</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>109.09</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
           <t>8.05688711e-05</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds      49292415000000014 03640511719355998  </t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>NonConvertible debentures  Bonds  NAN nan nan nan 49292415000000014 03640511719355998 nan nan</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6072,42 +5978,37 @@
           <t>INE601U08309</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
         <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>850</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>10382.62</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
           <t>0.0076681269903</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zero Coupon Bonds  Deep Discount Bonds      1038262 00076681269903  </t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Zero Coupon Bonds  Deep Discount Bonds  NAN nan nan nan 1038262 00076681269903 nan nan</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6124,42 +6025,37 @@
           <t>INE14LF15016</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
         <is>
           <t>CRISIL AAA(SO)</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>750000000</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>7515</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
           <t>0.0055502343659</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Securitized Debt Instruments      7515 00055502343659  </t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Securitized Debt Instruments  NAN nan nan nan 7515 00055502343659 nan nan</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6176,42 +6072,37 @@
           <t>INE040A16FU3</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>4000</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>19902.7</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
           <t>0.0146992214923</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6228,42 +6119,37 @@
           <t>INE028A16EU1</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
         <is>
           <t>FITCH A1+</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>2300</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>11486.21</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
           <t>0.0084831879542</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6280,42 +6166,37 @@
           <t>INE160A16OL0</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>9988.02</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
           <t>0.0073766935264</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6332,42 +6213,37 @@
           <t>INE238AD6819</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>9948.27</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
           <t>0.0073473359994</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6384,42 +6260,37 @@
           <t>INE562A16MR8</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>9920.85</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
           <t>0.0073270848448</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6436,42 +6307,37 @@
           <t>INE556F16AR4</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>7461.2</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
           <t>0.0055105001531</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6488,42 +6354,37 @@
           <t>INE028A16GT8</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
         <is>
           <t>FITCH A1+</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>4997</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
           <t>0.0036905550401</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6540,42 +6401,37 @@
           <t>INE028A16EX5</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
         <is>
           <t>FITCH A1+</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>4981.2</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
           <t>0.0036788858847</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6592,42 +6448,37 @@
           <t>INE160A16OP1</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>1488.69</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
           <t>0.0010994781634</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6644,42 +6495,37 @@
           <t>INE238AD6827</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>497.31</t>
-        </is>
-      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
           <t>0.0003672903596</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits      8067145 0059580233418  </t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits  NAN nan nan nan 8067145 0059580233418 nan nan</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6696,42 +6542,37 @@
           <t>INE556F14KR8</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>4961.57</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
           <t>0.0036643880669</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Papers      496157 00036643880669  </t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Commercial Papers  NAN nan nan nan 496157 00036643880669 nan nan</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
@@ -6748,38 +6589,37 @@
           <t>INF0RQ622028</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>33175.66</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>3619.66</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
           <t>0.0026733148802</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Units of an Alternative Investment Fund AIF      361966 00026733148802  </t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>SEASONS BOND</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Units of an Alternative Investment Fund   NAN nan nan nan 361966 00026733148802 nan nan</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>SEASONS BOND</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>ICICI Prudential Mutual Fund</t>
         </is>
